--- a/yeung-wu-CSE316-F23-Project-UseCasesTest.xlsx
+++ b/yeung-wu-CSE316-F23-Project-UseCasesTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanzhang/Downloads/Term Project Grading/projectfakeso-yeung-wu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3463517D-4330-CD47-9F33-6E958D65B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3FB39-6AF8-4B4F-991D-4E55B3B5A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43720" yWindow="520" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
   <si>
     <t>Test Name</t>
   </si>
@@ -572,6 +572,10 @@
   </si>
   <si>
     <t xml:space="preserve">not found </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML Class Diagram</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -737,16 +741,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -966,10 +973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1019,7 +1026,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1035,7 +1042,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1049,7 +1056,7 @@
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1070,7 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1084,7 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1091,7 +1098,7 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1112,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1126,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1135,7 +1142,7 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1156,7 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1170,7 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1184,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1193,7 +1200,7 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1207,7 +1214,7 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1223,7 +1230,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
@@ -1237,7 +1244,7 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
@@ -1251,7 +1258,7 @@
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1265,7 +1272,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1286,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1293,7 +1300,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1314,7 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1321,7 +1328,7 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F26" s="18" t="s">
@@ -1337,7 +1344,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F27" s="18" t="s">
@@ -1353,7 +1360,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
@@ -1361,7 +1368,7 @@
         <v>60</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F28" s="18" t="s">
@@ -1369,7 +1376,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
@@ -1377,7 +1384,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F29" s="18" t="s">
@@ -1385,7 +1392,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
@@ -1393,7 +1400,7 @@
         <v>64</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F30" s="18" t="s">
@@ -1401,7 +1408,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1417,7 +1424,7 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1438,7 @@
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1445,7 +1452,7 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
@@ -1459,7 +1466,7 @@
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="7" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1480,7 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1487,7 +1494,7 @@
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="7" t="s">
         <v>51</v>
       </c>
@@ -1501,7 +1508,7 @@
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="7" t="s">
         <v>53</v>
       </c>
@@ -1515,7 +1522,7 @@
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="7" t="s">
         <v>65</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F39" s="18" t="s">
@@ -1531,7 +1538,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
@@ -1539,7 +1546,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -1547,7 +1554,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>60</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F41" s="18" t="s">
@@ -1563,7 +1570,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>62</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F42" s="18" t="s">
@@ -1579,7 +1586,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
@@ -1587,7 +1594,7 @@
         <v>64</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -1595,7 +1602,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -1611,7 +1618,7 @@
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
@@ -1625,7 +1632,7 @@
       <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +1646,7 @@
       <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
@@ -1653,7 +1660,7 @@
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
@@ -1667,7 +1674,7 @@
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="7" t="s">
         <v>74</v>
       </c>
@@ -1675,7 +1682,7 @@
         <v>75</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F49" s="18" t="s">
@@ -1683,7 +1690,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1699,7 +1706,7 @@
       <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="7" t="s">
         <v>78</v>
       </c>
@@ -1713,7 +1720,7 @@
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -1729,7 +1736,7 @@
       <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="7" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1750,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1764,7 @@
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -1771,7 +1778,7 @@
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1787,7 +1794,7 @@
       <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="7" t="s">
         <v>83</v>
       </c>
@@ -1801,7 +1808,7 @@
       <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="7" t="s">
         <v>85</v>
       </c>
@@ -1815,7 +1822,7 @@
       <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="7" t="s">
         <v>83</v>
       </c>
@@ -1829,7 +1836,7 @@
       <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="7" t="s">
         <v>88</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>89</v>
       </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F60" s="18" t="s">
@@ -1845,7 +1852,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="7" t="s">
         <v>83</v>
       </c>
@@ -1859,7 +1866,7 @@
       <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="7" t="s">
         <v>91</v>
       </c>
@@ -1873,7 +1880,7 @@
       <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="7" t="s">
         <v>91</v>
       </c>
@@ -1887,7 +1894,7 @@
       <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="7" t="s">
         <v>83</v>
       </c>
@@ -1901,7 +1908,7 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -1917,7 +1924,7 @@
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="10" t="s">
         <v>83</v>
       </c>
@@ -1931,7 +1938,7 @@
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="10" t="s">
         <v>98</v>
       </c>
@@ -1945,7 +1952,7 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="10" t="s">
         <v>83</v>
       </c>
@@ -1959,7 +1966,7 @@
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A69" s="20"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="10" t="s">
         <v>88</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F69" s="18" t="s">
@@ -1975,7 +1982,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="10" t="s">
         <v>83</v>
       </c>
@@ -1989,7 +1996,7 @@
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="10" t="s">
         <v>91</v>
       </c>
@@ -2003,7 +2010,7 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="10" t="s">
         <v>91</v>
       </c>
@@ -2017,7 +2024,7 @@
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="10" t="s">
         <v>83</v>
       </c>
@@ -2031,7 +2038,7 @@
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -2047,7 +2054,7 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="10" t="s">
         <v>88</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>103</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F75" s="18" t="s">
@@ -2063,7 +2070,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -2079,7 +2086,7 @@
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="10" t="s">
         <v>88</v>
       </c>
@@ -2093,7 +2100,7 @@
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="10" t="s">
         <v>107</v>
       </c>
@@ -2107,7 +2114,7 @@
       <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="10" t="s">
         <v>109</v>
       </c>
@@ -2121,7 +2128,7 @@
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A80" s="20"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="10" t="s">
         <v>111</v>
       </c>
@@ -2135,7 +2142,7 @@
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="10" t="s">
         <v>113</v>
       </c>
@@ -2149,7 +2156,7 @@
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="10" t="s">
         <v>115</v>
       </c>
@@ -2163,7 +2170,7 @@
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="10" t="s">
         <v>117</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -2193,7 +2200,7 @@
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="10" t="s">
         <v>122</v>
       </c>
@@ -2207,7 +2214,7 @@
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="10" t="s">
         <v>124</v>
       </c>
@@ -2221,7 +2228,7 @@
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -2237,7 +2244,7 @@
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="10" t="s">
         <v>129</v>
       </c>
@@ -2251,7 +2258,7 @@
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="20"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="10" t="s">
         <v>131</v>
       </c>
@@ -2265,7 +2272,7 @@
       <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="10" t="s">
         <v>133</v>
       </c>
@@ -2279,7 +2286,7 @@
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="20"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="10" t="s">
         <v>135</v>
       </c>
@@ -2293,7 +2300,7 @@
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="10" t="s">
         <v>137</v>
       </c>
@@ -2307,7 +2314,7 @@
       <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="20"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="10" t="s">
         <v>139</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="10" t="s">
         <v>83</v>
       </c>
@@ -2335,7 +2342,7 @@
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="10" t="s">
         <v>141</v>
       </c>
@@ -2349,7 +2356,7 @@
       <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="10" t="s">
         <v>143</v>
       </c>
@@ -2363,7 +2370,7 @@
       <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="10" t="s">
         <v>145</v>
       </c>
@@ -2377,7 +2384,7 @@
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="10" t="s">
         <v>83</v>
       </c>
@@ -2391,7 +2398,7 @@
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="10" t="s">
         <v>148</v>
       </c>
@@ -2405,7 +2412,7 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="22" t="s">
         <v>150</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -2421,7 +2428,7 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="10" t="s">
         <v>153</v>
       </c>
@@ -2435,7 +2442,7 @@
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
@@ -2449,7 +2456,7 @@
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="10" t="s">
         <v>157</v>
       </c>
@@ -2463,7 +2470,7 @@
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="10" t="s">
         <v>159</v>
       </c>
@@ -2477,7 +2484,7 @@
       <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="20"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="10" t="s">
         <v>161</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>173</v>
       </c>
       <c r="B107" s="10">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -2510,16 +2517,17 @@
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" s="13">
-        <v>5</v>
-      </c>
+      <c r="A109" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="10">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B110" s="13">
         <v>5</v>
@@ -2527,33 +2535,34 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B111" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
+      <c r="A112" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B114" s="8">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A31:A43"/>
     <mergeCell ref="A76:A83"/>
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A87:A99"/>
@@ -2562,6 +2571,13 @@
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A31:A43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/yeung-wu-CSE316-F23-Project-UseCasesTest.xlsx
+++ b/yeung-wu-CSE316-F23-Project-UseCasesTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanzhang/Downloads/Term Project Grading/projectfakeso-yeung-wu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanzhang/Downloads/Term Project Grading/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3FB39-6AF8-4B4F-991D-4E55B3B5A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0301FC-50FD-9944-9E42-05BDA7DDABFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43720" yWindow="520" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37260" yWindow="9640" windowWidth="39160" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="181">
   <si>
     <t>Test Name</t>
   </si>
@@ -576,6 +576,10 @@
   </si>
   <si>
     <t>UML Class Diagram</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no server diagram</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -742,17 +746,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,7 +980,7 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1026,7 +1030,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1042,7 +1046,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1074,7 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1088,7 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1102,7 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1116,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1130,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1142,7 +1146,7 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1160,7 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1174,7 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1188,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1200,7 +1204,7 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1218,7 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1230,7 +1234,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
@@ -1244,7 +1248,7 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
@@ -1258,7 +1262,7 @@
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1272,7 +1276,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
@@ -1286,7 +1290,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1300,7 +1304,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1318,7 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1328,7 +1332,7 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
@@ -1344,7 +1348,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1360,7 +1364,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
@@ -1376,7 +1380,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
@@ -1392,7 +1396,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
@@ -1408,7 +1412,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="23" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1424,7 +1428,7 @@
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
@@ -1438,7 +1442,7 @@
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1452,7 +1456,7 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
@@ -1466,7 +1470,7 @@
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="7" t="s">
         <v>47</v>
       </c>
@@ -1480,7 +1484,7 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1498,7 @@
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="7" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +1512,7 @@
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="7" t="s">
         <v>53</v>
       </c>
@@ -1522,7 +1526,7 @@
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="7" t="s">
         <v>65</v>
       </c>
@@ -1538,7 +1542,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
@@ -1554,7 +1558,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
@@ -1570,7 +1574,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="7" t="s">
         <v>61</v>
       </c>
@@ -1586,7 +1590,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
@@ -1602,7 +1606,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="23" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -1618,7 +1622,7 @@
       <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1636,7 @@
       <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -1646,7 +1650,7 @@
       <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
@@ -1660,7 +1664,7 @@
       <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
@@ -1674,7 +1678,7 @@
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="7" t="s">
         <v>74</v>
       </c>
@@ -1690,7 +1694,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="23" t="s">
         <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1706,7 +1710,7 @@
       <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="7" t="s">
         <v>78</v>
       </c>
@@ -1720,7 +1724,7 @@
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -1736,7 +1740,7 @@
       <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="7" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1754,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1768,7 @@
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="98" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -1778,7 +1782,7 @@
       <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1794,7 +1798,7 @@
       <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="7" t="s">
         <v>83</v>
       </c>
@@ -1808,7 +1812,7 @@
       <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="7" t="s">
         <v>85</v>
       </c>
@@ -1822,7 +1826,7 @@
       <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="7" t="s">
         <v>83</v>
       </c>
@@ -1836,7 +1840,7 @@
       <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="7" t="s">
         <v>88</v>
       </c>
@@ -1852,7 +1856,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="7" t="s">
         <v>83</v>
       </c>
@@ -1866,7 +1870,7 @@
       <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="21"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="7" t="s">
         <v>91</v>
       </c>
@@ -1880,7 +1884,7 @@
       <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="7" t="s">
         <v>91</v>
       </c>
@@ -1894,7 +1898,7 @@
       <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="7" t="s">
         <v>83</v>
       </c>
@@ -1908,7 +1912,7 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -1924,7 +1928,7 @@
       <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="10" t="s">
         <v>83</v>
       </c>
@@ -1938,7 +1942,7 @@
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="10" t="s">
         <v>98</v>
       </c>
@@ -1952,7 +1956,7 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="10" t="s">
         <v>83</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="10" t="s">
         <v>88</v>
       </c>
@@ -1982,7 +1986,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="10" t="s">
         <v>83</v>
       </c>
@@ -1996,7 +2000,7 @@
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="10" t="s">
         <v>91</v>
       </c>
@@ -2010,7 +2014,7 @@
       <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="10" t="s">
         <v>91</v>
       </c>
@@ -2024,7 +2028,7 @@
       <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="10" t="s">
         <v>83</v>
       </c>
@@ -2038,7 +2042,7 @@
       <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -2054,7 +2058,7 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="10" t="s">
         <v>88</v>
       </c>
@@ -2070,7 +2074,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -2086,7 +2090,7 @@
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="10" t="s">
         <v>88</v>
       </c>
@@ -2100,7 +2104,7 @@
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="10" t="s">
         <v>107</v>
       </c>
@@ -2114,7 +2118,7 @@
       <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="10" t="s">
         <v>109</v>
       </c>
@@ -2128,7 +2132,7 @@
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="10" t="s">
         <v>111</v>
       </c>
@@ -2142,7 +2146,7 @@
       <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="10" t="s">
         <v>113</v>
       </c>
@@ -2156,7 +2160,7 @@
       <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="10" t="s">
         <v>115</v>
       </c>
@@ -2170,7 +2174,7 @@
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="10" t="s">
         <v>117</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -2200,7 +2204,7 @@
       <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="21"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="10" t="s">
         <v>122</v>
       </c>
@@ -2214,7 +2218,7 @@
       <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A86" s="21"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="10" t="s">
         <v>124</v>
       </c>
@@ -2228,7 +2232,7 @@
       <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -2244,7 +2248,7 @@
       <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="21"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="10" t="s">
         <v>129</v>
       </c>
@@ -2258,7 +2262,7 @@
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="21"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="10" t="s">
         <v>131</v>
       </c>
@@ -2272,7 +2276,7 @@
       <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A90" s="21"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="10" t="s">
         <v>133</v>
       </c>
@@ -2286,7 +2290,7 @@
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="21"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="10" t="s">
         <v>135</v>
       </c>
@@ -2300,7 +2304,7 @@
       <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="21"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="10" t="s">
         <v>137</v>
       </c>
@@ -2314,7 +2318,7 @@
       <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="21"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="10" t="s">
         <v>139</v>
       </c>
@@ -2328,7 +2332,7 @@
       <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A94" s="21"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="10" t="s">
         <v>83</v>
       </c>
@@ -2342,7 +2346,7 @@
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A95" s="21"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="10" t="s">
         <v>141</v>
       </c>
@@ -2356,7 +2360,7 @@
       <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="21"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="10" t="s">
         <v>143</v>
       </c>
@@ -2370,7 +2374,7 @@
       <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="21"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="10" t="s">
         <v>145</v>
       </c>
@@ -2384,7 +2388,7 @@
       <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="21"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="10" t="s">
         <v>83</v>
       </c>
@@ -2398,7 +2402,7 @@
       <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="21"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="10" t="s">
         <v>148</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -2428,7 +2432,7 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="21"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="10" t="s">
         <v>153</v>
       </c>
@@ -2442,7 +2446,7 @@
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="21"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
@@ -2456,7 +2460,7 @@
       <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="21"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="10" t="s">
         <v>157</v>
       </c>
@@ -2470,7 +2474,7 @@
       <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="21"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="10" t="s">
         <v>159</v>
       </c>
@@ -2484,7 +2488,7 @@
       <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="21"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="10" t="s">
         <v>161</v>
       </c>
@@ -2516,14 +2520,16 @@
       <c r="B108" s="10"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="23" t="s">
+    <row r="109" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="20" t="s">
         <v>179</v>
       </c>
       <c r="B109" s="10">
-        <v>15</v>
-      </c>
-      <c r="C109" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="12" t="s">
@@ -2558,11 +2564,18 @@
         <v>172</v>
       </c>
       <c r="B114" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A31:A43"/>
     <mergeCell ref="A76:A83"/>
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="A87:A99"/>
@@ -2571,13 +2584,6 @@
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A31:A43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
